--- a/iselUssSyncV2/OutputWSLorientation/20220524_1424_D50L474W30Q25.0U0.43H72.9G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1424_D50L474W30Q25.0U0.43H72.9G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.41202659008461789</v>
+        <v>0.23557554057803176</v>
       </c>
       <c r="P2" s="0">
         <v>251.37633333333349</v>
@@ -356,10 +356,10 @@
         <v>2.4660018300000015</v>
       </c>
       <c r="R2" s="0">
-        <v>1.1016438916106694</v>
+        <v>1.9267984062952457</v>
       </c>
       <c r="S2" s="0">
-        <v>0.38085231810208459</v>
+        <v>1.1259145410474238</v>
       </c>
       <c r="T2" s="0">
         <v>0.046736079221438992</v>
@@ -383,16 +383,16 @@
         <v>210000</v>
       </c>
       <c r="AA2" s="0">
-        <v>2.2384745640395272</v>
+        <v>1.2798442338041531</v>
       </c>
       <c r="AB2" s="0">
-        <v>6.4749555478326073</v>
+        <v>2.1902211403237692</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.5305106379671032</v>
+        <v>2.0185637822180009</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.6545771389567698</v>
+        <v>1.8272885694783849</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>10.00546618579971</v>
+        <v>4.2087849225417706</v>
       </c>
     </row>
   </sheetData>
